--- a/azure_best_practices.xlsx
+++ b/azure_best_practices.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajay\Documents\chatgpt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F50233F6-D855-4FB9-BF6C-7C43EDD1E615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610398B0-04AC-4656-85BF-B023BFEC71F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0F062994-19A6-44AE-8BB4-2ED757289080}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0F062994-19A6-44AE-8BB4-2ED757289080}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Best Practice</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
   <si>
     <t>Idempotency</t>
   </si>
@@ -948,6 +958,116 @@
       </rPr>
       <t xml:space="preserve"> to implement advanced orchestration patterns (e.g., chaining, fan-out/fan-in) while adhering to scalable best practices.</t>
     </r>
+  </si>
+  <si>
+    <t>Azure Docs - Python Idempotency</t>
+  </si>
+  <si>
+    <t>Azure Docs - Python Timeouts</t>
+  </si>
+  <si>
+    <t>Azure Docs - Python State Management</t>
+  </si>
+  <si>
+    <t>Azure Docs - Python Fan-Out/Fan-In</t>
+  </si>
+  <si>
+    <t>Azure Docs - Python External Events</t>
+  </si>
+  <si>
+    <t>Azure Docs - Python Resource Limits</t>
+  </si>
+  <si>
+    <t>Azure Docs - Python Versioning</t>
+  </si>
+  <si>
+    <t>Azure Docs - Python Sub-Orchestrations</t>
+  </si>
+  <si>
+    <t>Azure Docs - Python Orchestration Timeouts</t>
+  </si>
+  <si>
+    <t>Azure Docs - Python Security</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ensure </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orchestrator functions remain deterministic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by avoiding non-deterministic APIs or code that relies on external states. Orchestrator functions replay their history during recovery or scaling operations, so any non-deterministic code (like using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>datetime.now()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>uuid.uuid4()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) can lead to inconsistent results. Instead, use built-in context methods to fetch deterministic values that are replay-safe, ensuring consistent behavior across replays.</t>
+    </r>
+  </si>
+  <si>
+    <t>Azure Docs - Python Code Constraints</t>
+  </si>
+  <si>
+    <t>Azure Docs - Python Monitoring</t>
+  </si>
+  <si>
+    <t>Azure Docs - Python Error Handling</t>
+  </si>
+  <si>
+    <t>Azure Docs - Python Concurrency Control</t>
+  </si>
+  <si>
+    <t>Azure Docs - Python Orchestration Events</t>
+  </si>
+  <si>
+    <t>[Azure Docs - Python Orchestration History](https://learn.microsoft.com/en</t>
   </si>
 </sst>
 </file>
@@ -1013,8 +1133,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1347,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B41820-41CF-46BC-8180-6749C2C79104}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1359,341 +1482,341 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="174">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="159.5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="159.5">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="188.5">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="174">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="174">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="159.5">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="188.5">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="159.5">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="188.5">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="159.5">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="159.5">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="174">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="159.5">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="159.5">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="174">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="188.5">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="174">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="174">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="159.5">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="188.5">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="159.5">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="188.5">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="159.5">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="174">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="159.5">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="174">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1</v>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="159.5">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>1</v>
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="159.5">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>1</v>
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="87">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1"/>
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="58">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>1</v>
+      <c r="A18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="58">
-      <c r="A19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>1</v>
+      <c r="A19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="43.5">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>1</v>
+      <c r="A20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="58">
-      <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>1</v>
+      <c r="A21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="58">
-      <c r="A22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>1</v>
+      <c r="A22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="58">
-      <c r="A23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>1</v>
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="58">
-      <c r="A24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>1</v>
+      <c r="A24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="58">
-      <c r="A25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>1</v>
+      <c r="A25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="58">
-      <c r="A26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>1</v>
+      <c r="A26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="58">
-      <c r="A27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>1</v>
+      <c r="A27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="43.5">
-      <c r="A28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>1</v>
+      <c r="A28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="58">
-      <c r="A29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>1</v>
+      <c r="A29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="58">
-      <c r="A30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>1</v>
+      <c r="A30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="17.5">
-      <c r="A33" s="4"/>
+      <c r="A33" s="5"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="5"/>
+      <c r="A34" s="6"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="5"/>
+      <c r="A35" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1729,4 +1852,224 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C7CD9-1156-4014-9C8F-09BB03045A91}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="409.5">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="409.5">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="409.5">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="409.5">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="409.5">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="409.5">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="409.5">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="409.5">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="409.5">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="409.5">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="409.5">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="409.5">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="409.5">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="409.5">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="409.5">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="409.5">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://learn.microsoft.com/en-us/azure/azure-functions/durable/durable-functions-python-error-handling" xr:uid="{F931833A-4825-4934-BC8E-2099F768FACB}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://learn.microsoft.com/en-us/azure/azure-functions/durable/durable-functions-python-timeouts" xr:uid="{3F2C2B68-091E-4AD4-A184-8B9E11975064}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://learn.microsoft.com/en-us/azure/azure-functions/durable/durable-functions-python-instance-management" xr:uid="{C955D1B0-D295-4827-84C0-532DC49BCF70}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://learn.microsoft.com/en-us/azure/azure-functions/durable/durable-functions-python-overview" xr:uid="{C8343160-D921-4C2C-84FB-967A6C10E866}"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://learn.microsoft.com/en-us/azure/azure-functions/durable/durable-functions-python-external-events" xr:uid="{E99D8ABE-E351-4827-84E1-41BD8F7CA435}"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://learn.microsoft.com/en-us/azure/azure-functions/durable/durable-functions-python-overview" xr:uid="{F4C81A64-939F-49CF-8D4D-51502A30E135}"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://learn.microsoft.com/en-us/azure/azure-functions/durable/durable-functions-python-overview" xr:uid="{5B9ED595-A4E6-45C9-8636-6A3D6696BEFE}"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://learn.microsoft.com/en-us/azure/azure-functions/durable/durable-functions-python-suborchestrations" xr:uid="{2CE2EC0D-E6CB-4A45-9230-2AF985D42A06}"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://learn.microsoft.com/en-us/azure/azure-functions/durable/durable-functions-python-timeouts" xr:uid="{2A1DE3C0-4C06-4064-BE00-FC346FE1223B}"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://learn.microsoft.com/en-us/azure/azure-functions/durable/durable-functions-python-security" xr:uid="{BF9DEA15-F09E-4694-B8AD-2E82636641E8}"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://learn.microsoft.com/en-us/azure/azure-functions/durable/durable-functions-python-code-constraints" xr:uid="{3DC1BFF0-F314-405F-A7E4-09FC483C6F88}"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://learn.microsoft.com/en-us/azure/azure-functions/durable/durable-functions-python-monitor" xr:uid="{745710F0-1CEA-402C-8294-D2099E1497F5}"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://learn.microsoft.com/en-us/azure/azure-functions/durable/durable-functions-python-error-handling" xr:uid="{D6CAA7A2-5347-431C-B3E1-03D6D5ED2F14}"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://learn.microsoft.com/en-us/azure/azure-functions/durable/durable-functions-python-instance-management" xr:uid="{EF514A75-CD07-412E-9410-DB23718914AC}"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://learn.microsoft.com/en-us/azure/azure-functions/durable/durable-functions-python-external-events" xr:uid="{640E9AC8-2933-4EDA-BEF1-6ED1B7C46C35}"/>
+    <hyperlink ref="C17" r:id="rId16" display="https://learn.microsoft.com/en" xr:uid="{F31D0805-A908-48BC-99AC-68D3E83495D9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>